--- a/db/db-challenge2/データベース定義書 (db_challenge2).xlsx
+++ b/db/db-challenge2/データベース定義書 (db_challenge2).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{422453FE-9558-45B5-AD04-30CFC808B90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9276A7B-A4A7-4F6B-AC3E-732E03C01755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
   <si>
     <t>改定履歴</t>
   </si>
@@ -602,7 +602,7 @@
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>id</t>
   </si>
   <si>
     <t>int</t>
@@ -659,6 +659,9 @@
     <t>cell_phone_number</t>
   </si>
   <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
     <t>作成日時</t>
   </si>
   <si>
@@ -674,9 +677,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
     <t>chatrooms</t>
   </si>
   <si>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t>チャットルームID</t>
-  </si>
-  <si>
-    <t>chatroom_id</t>
   </si>
   <si>
     <t>〇</t>
@@ -725,7 +722,10 @@
     <t>0:通常チャットルーム　1:ダイレクトチャットルーム</t>
   </si>
   <si>
-    <t>作成者ID</t>
+    <t>投稿日時</t>
+  </si>
+  <si>
+    <t>投稿者ID</t>
   </si>
   <si>
     <t>created_by</t>
@@ -746,7 +746,13 @@
     <t>ユーザーとユーザーが参加しているチャットルームの関連情報を保持するテーブル</t>
   </si>
   <si>
+    <t>user_id</t>
+  </si>
+  <si>
     <t>PK,FK</t>
+  </si>
+  <si>
+    <t>chatroom_id</t>
   </si>
   <si>
     <t>参加日時</t>
@@ -762,9 +768,6 @@
   </si>
   <si>
     <t>タスクID</t>
-  </si>
-  <si>
-    <t>task_id</t>
   </si>
   <si>
     <t>担当者ID</t>
@@ -797,9 +800,6 @@
     <t>投稿ID</t>
   </si>
   <si>
-    <t>post_id</t>
-  </si>
-  <si>
     <t>投稿内容</t>
   </si>
   <si>
@@ -813,12 +813,6 @@
   </si>
   <si>
     <t>post_file_name</t>
-  </si>
-  <si>
-    <t>投稿日時</t>
-  </si>
-  <si>
-    <t>投稿者ID</t>
   </si>
 </sst>
 </file>
@@ -30771,11 +30765,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98069BE-4B1E-4A7F-9CCA-181167E51F8A}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31053,29 +31047,34 @@
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:11" s="26" customFormat="1">
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
       <c r="H12" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="26"/>
@@ -31084,22 +31083,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26"/>
@@ -31108,28 +31107,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
+      <c r="E14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="26"/>
@@ -31156,6 +31149,19 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31172,8 +31178,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31283,7 +31289,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -31293,7 +31299,7 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>54</v>
@@ -31310,10 +31316,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>58</v>
@@ -31323,7 +31329,7 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31336,10 +31342,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>58</v>
@@ -31360,13 +31366,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31375,12 +31381,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -31390,13 +31396,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31405,16 +31411,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="26"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31423,129 +31428,125 @@
         <v>70</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
       <c r="H10" s="18" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="26"/>
+      <c r="K10" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="26" customFormat="1">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="16">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:11" s="26" customFormat="1">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:11" s="26" customFormat="1">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="17">
-        <v>10</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" s="26" customFormat="1">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="17">
+        <v>10</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="26"/>
@@ -31589,7 +31590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31697,7 +31698,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -31710,7 +31711,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -31725,7 +31726,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -31738,7 +31739,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31750,13 +31751,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
@@ -31898,9 +31899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB52E75E-23E1-45B3-9917-F3BF13CFC3FB}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -31921,7 +31922,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -31938,7 +31939,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32005,10 +32006,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -32018,7 +32019,7 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>54</v>
@@ -32035,10 +32036,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32048,7 +32049,7 @@
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>94</v>
@@ -32066,7 +32067,7 @@
         <v>78</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -32076,7 +32077,7 @@
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>94</v>
@@ -32091,13 +32092,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
@@ -32113,13 +32114,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -32128,16 +32129,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="26"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32146,129 +32146,125 @@
         <v>70</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
       <c r="H10" s="18" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="26"/>
+      <c r="K10" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="26" customFormat="1">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="16">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:11" s="26" customFormat="1">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="F12" s="16">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:11" s="26" customFormat="1">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="17">
-        <v>10</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" s="26" customFormat="1">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="17">
+        <v>10</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J14" s="20"/>
-      <c r="K14" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="26"/>
@@ -32308,11 +32304,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67448961-C280-47E2-86EC-57866E621225}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -32333,7 +32329,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32350,7 +32346,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32417,10 +32413,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -32476,7 +32472,7 @@
         <v>119</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -32518,29 +32514,34 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
       <c r="H9" s="18" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="26"/>
@@ -32549,24 +32550,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="16">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
@@ -32577,20 +32574,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="F11" s="16">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
@@ -32601,26 +32602,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="17">
-        <v>10</v>
-      </c>
-      <c r="G12" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="26"/>
@@ -32629,28 +32626,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="17">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="J13" s="20"/>
-      <c r="K13" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="26"/>
@@ -32691,6 +32686,19 @@
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
